--- a/excelFile/download/modelExcel.xlsx
+++ b/excelFile/download/modelExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\ideaProjects\BGC_demo\excelFile\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189DA17-8862-4971-9969-F7288585ACE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCE271-A645-415E-8882-66418EE2E31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>POST</t>
   </si>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>本条用于展示示例，可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJECT_API_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,33 +563,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -589,37 +598,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -627,39 +639,42 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -671,11 +686,12 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="9"/>
-      <c r="N3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="4"/>
+      <c r="M3" s="9"/>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -687,11 +703,12 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="9"/>
-      <c r="N4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L4" s="4"/>
+      <c r="M4" s="9"/>
+      <c r="O4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -703,9 +720,10 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L5" s="3"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -717,9 +735,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L6" s="3"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -731,9 +750,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L7" s="3"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -745,9 +765,10 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -759,9 +780,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -773,7 +795,8 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excelFile/download/modelExcel.xlsx
+++ b/excelFile/download/modelExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\ideaProjects\BGC_demo\excelFile\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCE271-A645-415E-8882-66418EE2E31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17EAA9F-BF85-4A36-92E3-6E926BF4F0C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>POST</t>
   </si>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于展示示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://127.0.0.1:8002/api/test/test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,18 @@
   </si>
   <si>
     <t>示例接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_PASSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -253,11 +261,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -283,6 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,14 +605,15 @@
     <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -598,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -627,11 +650,14 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -639,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -648,33 +674,36 @@
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -687,11 +716,12 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="4"/>
+      <c r="N3" s="9"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -704,11 +734,12 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="9"/>
-      <c r="O4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M4" s="4"/>
+      <c r="N4" s="9"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -721,9 +752,10 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M5" s="3"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -736,9 +768,10 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M6" s="3"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -751,9 +784,10 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M7" s="3"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -766,9 +800,10 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -781,9 +816,10 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -796,7 +832,8 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
